--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86283FAF-ABB4-4B9F-98E1-92343E50D977}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="12525"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>DATE</t>
   </si>
@@ -130,13 +136,22 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>2-4 Infos Perso</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Bouton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,9 +316,9 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
-    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="4" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="3" builtinId="53"/>
   </cellStyles>
@@ -316,6 +331,14 @@
       <color rgb="FF0B0B0B"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -336,7 +359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -468,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,9 +529,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,6 +581,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,14 +774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:BM163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
@@ -724,7 +789,7 @@
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:65">
+    <row r="6" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,12 +980,12 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="8" spans="2:65">
+    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:65">
+    <row r="10" spans="2:65" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -939,7 +1004,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="2:65">
+    <row r="11" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -962,7 +1027,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:65">
+    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -985,7 +1050,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:65">
+    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1073,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:65">
+    <row r="14" spans="2:65" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1027,7 +1092,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:65">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1046,7 +1111,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:65">
+    <row r="16" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1134,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1092,11 +1157,11 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1115,7 +1180,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1138,7 +1203,11 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1157,7 +1226,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1176,11 +1245,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="9"/>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1199,9 +1264,9 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="7" t="s">
-        <v>20</v>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="5"/>
@@ -1222,9 +1287,9 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="5"/>
@@ -1236,7 +1301,9 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -1245,9 +1312,9 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="5"/>
@@ -1259,7 +1326,9 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -1268,9 +1337,9 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="5"/>
@@ -1282,7 +1351,9 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -1291,9 +1362,9 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="5"/>
@@ -1305,7 +1376,9 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -1314,9 +1387,9 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="5"/>
@@ -1328,7 +1401,9 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -1337,8 +1412,11 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="7"/>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1348,7 +1426,9 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -1357,7 +1437,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1377,7 +1457,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1397,7 +1477,8 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1416,14 +1497,10 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1442,9 +1519,9 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:20">
-      <c r="B34" s="7" t="s">
-        <v>20</v>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
@@ -1465,9 +1542,9 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
@@ -1488,9 +1565,9 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="5"/>
@@ -1511,9 +1588,9 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="5"/>
@@ -1534,9 +1611,9 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="5"/>
@@ -1557,8 +1634,11 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="7"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1577,7 +1657,8 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1596,11 +1677,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="9"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1619,9 +1696,9 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:20">
-      <c r="B42" s="7" t="s">
-        <v>20</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="5"/>
@@ -1642,9 +1719,9 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20">
-      <c r="B43" s="11" t="s">
-        <v>27</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="5"/>
@@ -1665,9 +1742,9 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="5"/>
@@ -1686,9 +1763,9 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="7" t="s">
-        <v>21</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="5"/>
@@ -1707,9 +1784,9 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="5"/>
@@ -1728,9 +1805,9 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="5"/>
@@ -1751,10 +1828,10 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="5"/>
@@ -1775,12 +1852,12 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1799,8 +1876,12 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
+      <c r="B50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="8"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1819,7 +1900,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1838,11 +1919,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:20">
-      <c r="B52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="8"/>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -1861,9 +1938,9 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:20">
-      <c r="B53" t="s">
-        <v>32</v>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="5"/>
@@ -1884,9 +1961,9 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="8"/>
       <c r="E54" s="5"/>
@@ -1906,113 +1983,119 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:20">
-      <c r="B55" s="5"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="B57" s="4" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
       <c r="D58" s="5"/>
     </row>
-    <row r="60" spans="1:20">
-      <c r="B60" s="4" t="s">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
-      <c r="B61" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
-      <c r="B62" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
-      <c r="B63" t="s">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
-      <c r="B64" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="14" t="s">
-        <v>34</v>
-      </c>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="15" t="s">
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="6" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="119" spans="4:4">
+      <c r="C75" s="9"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="5"/>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="5"/>
     </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,24 +2105,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86283FAF-ABB4-4B9F-98E1-92343E50D977}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6A3EE-6A67-4147-AEF1-1B9E4C1FDD51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>DATE</t>
   </si>
@@ -145,13 +145,52 @@
   </si>
   <si>
     <t>Bouton</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Continué</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Samedi</t>
+  </si>
+  <si>
+    <t>Dimanche</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>vu connexion</t>
+  </si>
+  <si>
+    <t>Fin connexion</t>
+  </si>
+  <si>
+    <t>début</t>
+  </si>
+  <si>
+    <t>affichage connecté</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +249,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +308,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -287,15 +338,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -313,9 +365,11 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -777,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +840,8 @@
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="7" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -978,6 +1034,194 @@
       </c>
       <c r="BM6" s="3">
         <v>43535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.25">
@@ -1019,7 +1263,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1040,9 +1286,15 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="L12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1064,8 +1316,12 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1304,7 +1560,9 @@
       <c r="M24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="N24" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -1329,7 +1587,9 @@
       <c r="M25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="N25" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -1354,7 +1614,9 @@
       <c r="M26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="N26" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -1379,7 +1641,9 @@
       <c r="M27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="5"/>
+      <c r="N27" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -1404,7 +1668,9 @@
       <c r="M28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="5"/>
+      <c r="N28" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -2018,44 +2284,46 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L68" s="16"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6A3EE-6A67-4147-AEF1-1B9E4C1FDD51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="28460" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>DATE</t>
   </si>
@@ -184,12 +183,15 @@
   </si>
   <si>
     <t>affichage connecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,23 +586,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -636,23 +621,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -828,24 +796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="7" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.1796875" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" customWidth="1"/>
+    <col min="4" max="7" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:65" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1004,7 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="7" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:65" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>49</v>
       </c>
@@ -1224,12 +1192,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:65" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:65" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1248,7 +1216,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:65" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1241,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:65" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1270,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:65" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1297,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:65" x14ac:dyDescent="0.35">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1348,7 +1316,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.35">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1367,7 +1335,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:65" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1358,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +1381,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +1404,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1427,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1482,7 +1450,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1501,7 +1469,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1520,7 +1488,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1543,7 +1511,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1570,7 +1538,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1565,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1617,14 +1585,16 @@
       <c r="N26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="O26" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1644,14 +1614,16 @@
       <c r="N27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="5"/>
+      <c r="O27" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1650,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1696,14 +1668,18 @@
         <v>40</v>
       </c>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="O29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1723,7 +1699,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1743,7 +1719,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1763,7 +1739,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1785,7 +1761,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1784,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1807,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1854,7 +1830,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1877,7 +1853,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1900,7 +1876,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1899,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1943,7 +1919,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1962,7 +1938,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +1961,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +1984,7 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2029,7 +2005,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2026,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2071,7 +2047,7 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2094,7 +2070,7 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2118,7 +2094,7 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2142,7 +2118,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2166,7 +2142,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2185,7 +2161,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2204,7 +2180,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2203,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2249,119 +2225,119 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
       <c r="L67" s="17"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="16"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120" s="5"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124" s="5"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
@@ -2373,24 +2349,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>DATE</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">Début </t>
+  </si>
+  <si>
+    <t>3-5 Modifier</t>
   </si>
 </sst>
 </file>
@@ -799,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,7 +1561,9 @@
       <c r="N25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="10"/>
@@ -1674,13 +1679,18 @@
       <c r="P29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1692,8 +1702,12 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="O30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="28460" windowHeight="12530"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>DATE</t>
   </si>
@@ -194,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +313,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -352,7 +353,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -371,13 +372,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="4" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="3" builtinId="53"/>
   </cellStyles>
@@ -421,7 +423,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -556,7 +558,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,7 +593,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,21 +804,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.1796875" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" customWidth="1"/>
-    <col min="4" max="7" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" customWidth="1"/>
-    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="7" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>49</v>
       </c>
@@ -1195,12 +1197,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1219,7 +1221,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1246,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1275,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1302,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1319,7 +1321,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1338,7 +1340,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1363,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1386,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1409,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1432,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1455,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1472,7 +1474,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1491,7 +1493,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1516,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1541,7 +1543,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1570,7 +1572,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1601,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1628,7 +1630,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1655,7 +1657,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1713,7 +1715,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1733,7 +1735,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1753,7 +1755,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1775,7 +1777,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +1800,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1818,10 +1820,12 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1867,7 +1871,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +1894,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1913,7 +1917,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1933,7 +1937,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1952,7 +1956,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +1979,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +2002,7 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2023,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2065,7 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2084,7 +2088,7 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2108,7 +2112,7 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2132,7 +2136,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2156,7 +2160,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2175,7 +2179,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2194,7 +2198,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2217,7 +2221,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2239,119 +2243,119 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
       <c r="L67" s="17"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="16"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="5"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="5"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
@@ -2368,7 +2372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2380,7 +2384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8E7F07-17E8-434D-ABAD-CEFA6BE33889}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
   <si>
     <t>DATE</t>
   </si>
@@ -184,12 +190,21 @@
   </si>
   <si>
     <t>3-5 Modifier</t>
+  </si>
+  <si>
+    <t>Résolution bug</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Fini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,10 +391,10 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
-    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="4" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="3" builtinId="53"/>
   </cellStyles>
@@ -423,7 +438,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,9 +606,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,6 +658,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,11 +850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +865,7 @@
     <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
@@ -1363,7 +1413,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1386,7 +1436,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1459,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1482,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1455,7 +1505,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1474,7 +1524,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1493,7 +1543,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1566,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1593,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1570,9 +1620,11 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="10"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T25" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1599,9 +1651,11 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T26" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1628,9 +1682,11 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T27" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1713,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1744,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1714,8 +1770,11 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="U30" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1735,7 +1794,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1800,7 +1859,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -2257,6 +2316,9 @@
         <v>14</v>
       </c>
       <c r="D58" s="5"/>
+      <c r="N58" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
@@ -2367,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2379,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8E7F07-17E8-434D-ABAD-CEFA6BE33889}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>DATE</t>
   </si>
@@ -204,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,10 +385,10 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="4" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="3" builtinId="53"/>
   </cellStyles>
@@ -438,7 +432,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,26 +600,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,23 +635,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1774,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1796,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1819,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1883,8 +1843,11 @@
         <v>39</v>
       </c>
       <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="V35" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1907,7 +1870,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1893,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1916,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1976,7 +1939,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1996,7 +1959,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2015,7 +1978,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2001,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2061,7 +2024,7 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2082,7 +2045,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2103,7 +2066,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2087,7 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2147,7 +2110,7 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2429,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2441,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186887DF-EFE7-40E9-AF17-DF30554319B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
   <si>
     <t>DATE</t>
   </si>
@@ -193,12 +199,15 @@
   </si>
   <si>
     <t>Fini</t>
+  </si>
+  <si>
+    <t>Nouveau version ++ fini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,10 +394,10 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
-    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="4" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="3" builtinId="53"/>
   </cellStyles>
@@ -432,7 +441,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,9 +609,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,6 +661,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,6 +869,7 @@
     <col min="14" max="14" width="18.5703125" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
     <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
@@ -1702,7 +1746,12 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="T29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
@@ -1731,7 +1780,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
@@ -2392,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2404,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186887DF-EFE7-40E9-AF17-DF30554319B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>DATE</t>
   </si>
@@ -202,12 +201,18 @@
   </si>
   <si>
     <t>Nouveau version ++ fini</t>
+  </si>
+  <si>
+    <t>Mise en place système pagination</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -371,7 +382,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -391,6 +402,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
@@ -609,23 +621,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -661,23 +656,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -853,26 +831,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA67" sqref="AA67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="7" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="7" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" customWidth="1"/>
+    <col min="27" max="27" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1042,7 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="7" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:65" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>49</v>
       </c>
@@ -1251,12 +1230,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:65" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1275,7 +1254,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1279,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1308,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1335,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:65" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1375,7 +1354,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1394,7 +1373,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:65" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1396,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1440,7 +1419,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1442,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1465,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1509,7 +1488,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1528,7 +1507,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1547,7 +1526,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1549,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1576,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1696,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1783,7 +1762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1803,7 +1782,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1823,7 +1802,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1845,7 +1824,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1847,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1919,7 +1898,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1942,7 +1921,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1965,7 +1944,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +1967,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2008,7 +1987,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2027,7 +2006,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2029,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2072,8 +2051,14 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="AA43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB43" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2094,7 +2079,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2100,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2135,8 +2120,11 @@
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="AB46" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2158,8 +2146,11 @@
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="AB47" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2182,8 +2173,11 @@
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AB48" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2207,7 +2201,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2231,7 +2225,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2250,7 +2244,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2269,7 +2263,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2292,7 +2286,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2314,16 +2308,16 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2332,104 +2326,108 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
       <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="AA67" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="16"/>
       <c r="L68" s="16"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="AA68" s="19"/>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="5"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="5"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
@@ -2441,24 +2439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>DATE</t>
   </si>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AA67" sqref="AA67"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="54" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1802,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1987,7 +1987,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2006,7 +2006,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2057,8 +2057,11 @@
       <c r="AB43" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC43" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2078,8 +2081,11 @@
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD44" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2099,8 +2105,11 @@
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD45" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2123,8 +2132,14 @@
       <c r="AB46" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE46" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2149,8 +2164,14 @@
       <c r="AB47" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE47" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2176,8 +2197,14 @@
       <c r="AB48" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AD48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE48" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2200,8 +2227,11 @@
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AD49" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2225,7 +2255,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2244,7 +2274,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2263,7 +2293,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2286,7 +2316,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2308,16 +2338,16 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2326,22 +2356,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>18</v>
       </c>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EasyPHP\EasyPHP-DevServer-14.1VC11\data\localweb\projects\GSB3\Ajout\docs add\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
   <si>
     <t>DATE</t>
   </si>
@@ -207,12 +202,18 @@
   </si>
   <si>
     <t>Continue</t>
+  </si>
+  <si>
+    <t>Fonctionnnel</t>
+  </si>
+  <si>
+    <t>Fonctionnel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,10 +407,10 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="4" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="3" builtinId="53"/>
   </cellStyles>
@@ -453,7 +454,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -588,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,24 +835,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="54" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD49" sqref="AD49"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="7" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" customWidth="1"/>
-    <col min="27" max="27" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="7" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>49</v>
       </c>
@@ -1230,12 +1231,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1254,7 +1255,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1280,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1308,7 +1309,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1336,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1354,7 +1355,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1373,7 +1374,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1397,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1419,7 +1420,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1443,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1466,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1488,7 +1489,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1507,7 +1508,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1526,7 +1527,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1550,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1577,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1697,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1782,7 +1783,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1802,7 +1803,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1825,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1848,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1867,15 +1868,20 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="18" t="s">
+      <c r="T35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="T35" s="5"/>
       <c r="V35" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AS35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY35" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1898,7 +1904,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1927,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1944,7 +1950,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1966,8 +1972,14 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="BB39" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH39" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1987,7 +1999,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2006,7 +2018,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2041,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2139,7 +2151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2204,7 +2216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2231,7 +2243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2255,7 +2267,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2274,7 +2286,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2293,7 +2305,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2328,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2338,16 +2350,16 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2356,32 +2368,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>34</v>
       </c>
@@ -2398,66 +2410,66 @@
       <c r="L68" s="16"/>
       <c r="AA68" s="19"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="5"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="5"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
@@ -2474,7 +2486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2486,7 +2498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>DATE</t>
   </si>
@@ -454,7 +454,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="AX28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BH36" sqref="BH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,6 +1903,9 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
+      <c r="BH36" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
@@ -1949,6 +1952,9 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
+      <c r="BH38" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
@@ -2368,32 +2374,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="65">
   <si>
     <t>DATE</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Fonctionnel</t>
+  </si>
+  <si>
+    <t>Continuer</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BH36" sqref="BH36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1806,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1848,7 +1851,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1906,8 +1909,11 @@
       <c r="BH36" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BI36" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1936,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1955,8 +1961,11 @@
       <c r="BH38" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI38" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2005,7 +2014,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2024,7 +2033,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2056,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2222,7 +2231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2249,7 +2258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2272,8 +2281,11 @@
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
-    </row>
-    <row r="51" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BI50" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2292,7 +2304,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2311,7 +2323,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2334,7 +2346,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2356,16 +2368,16 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2374,22 +2386,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
   <si>
     <t>DATE</t>
   </si>
@@ -204,13 +204,13 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>Fonctionnnel</t>
-  </si>
-  <si>
     <t>Fonctionnel</t>
   </si>
   <si>
     <t>Continuer</t>
+  </si>
+  <si>
+    <t>ABANDONNER</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="AV28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ47" sqref="BJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1806,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1881,10 +1881,10 @@
         <v>42</v>
       </c>
       <c r="AY35" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1910,14 +1910,19 @@
         <v>39</v>
       </c>
       <c r="BI36" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="BJ36" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1936,7 +1941,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1962,10 +1967,13 @@
         <v>39</v>
       </c>
       <c r="BI38" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="BJ38" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +2002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2014,7 +2022,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2033,7 +2041,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2064,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2231,7 +2239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2258,7 +2266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2284,8 +2292,11 @@
       <c r="BI50" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BJ50" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2304,7 +2315,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2323,7 +2334,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2346,7 +2357,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2368,16 +2379,16 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2386,22 +2397,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
   <si>
     <t>DATE</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>ABANDONNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -386,7 +395,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -407,6 +416,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
@@ -457,7 +467,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ47" sqref="BJ47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF42" sqref="BF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1816,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1838,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1861,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1883,8 +1893,11 @@
       <c r="AY35" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK35" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1915,8 +1928,11 @@
       <c r="BJ36" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BK36" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1941,7 +1957,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1973,7 +1989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2022,7 +2038,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2041,7 +2057,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2080,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2144,7 +2160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2174,7 +2190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2239,7 +2255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2266,7 +2282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2295,8 +2311,11 @@
       <c r="BJ50" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BK50" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2315,7 +2334,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2334,7 +2353,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2357,7 +2376,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2379,16 +2398,16 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:62" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2397,22 +2416,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>

--- a/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
+++ b/Ajout/docs add/calendrier_previsionnel_gsb3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
   <si>
     <t>DATE</t>
   </si>
@@ -213,14 +213,14 @@
     <t>ABANDONNER</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> Fini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,7 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +401,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -417,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
@@ -467,7 +474,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -669,7 +675,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -845,14 +850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BM164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A6:BP164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF42" sqref="BF42"/>
+    <sheetView tabSelected="1" topLeftCell="AK32" workbookViewId="0">
+      <selection activeCell="BH46" sqref="BH46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
@@ -865,7 +870,7 @@
     <col min="27" max="27" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:68">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1060,17 @@
       <c r="BM6" s="3">
         <v>43535</v>
       </c>
-    </row>
-    <row r="7" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BN6" s="3">
+        <v>43536</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>43537</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="7" spans="2:68">
       <c r="D7" t="s">
         <v>49</v>
       </c>
@@ -1243,13 +1257,26 @@
       <c r="BM7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="BN7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:68">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO8" s="20"/>
+    </row>
+    <row r="9" spans="2:68">
+      <c r="BO9" s="20"/>
+    </row>
+    <row r="10" spans="2:68">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1267,8 +1294,9 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO10" s="20"/>
+    </row>
+    <row r="11" spans="2:68">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1320,9 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="BO11" s="20"/>
+    </row>
+    <row r="12" spans="2:68">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1350,9 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="BO12" s="20"/>
+    </row>
+    <row r="13" spans="2:68">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1348,8 +1378,9 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO13" s="20"/>
+    </row>
+    <row r="14" spans="2:68">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1367,8 +1398,9 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO14" s="20"/>
+    </row>
+    <row r="15" spans="2:68">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1386,8 +1418,9 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="2:65" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO15" s="20"/>
+    </row>
+    <row r="16" spans="2:68">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1409,8 +1442,9 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO16" s="20"/>
+    </row>
+    <row r="17" spans="2:67">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1432,8 +1466,9 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO17" s="20"/>
+    </row>
+    <row r="18" spans="2:67">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1455,8 +1490,9 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO18" s="20"/>
+    </row>
+    <row r="19" spans="2:67">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1478,8 +1514,9 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO19" s="20"/>
+    </row>
+    <row r="20" spans="2:67">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1501,8 +1538,9 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO20" s="20"/>
+    </row>
+    <row r="21" spans="2:67">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1520,8 +1558,9 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO21" s="20"/>
+    </row>
+    <row r="22" spans="2:67">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1539,8 +1578,9 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO22" s="20"/>
+    </row>
+    <row r="23" spans="2:67">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +1602,9 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO23" s="20"/>
+    </row>
+    <row r="24" spans="2:67">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1589,8 +1630,9 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO24" s="20"/>
+    </row>
+    <row r="25" spans="2:67">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1620,8 +1662,9 @@
       <c r="T25" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO25" s="20"/>
+    </row>
+    <row r="26" spans="2:67">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1651,8 +1694,9 @@
       <c r="T26" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO26" s="20"/>
+    </row>
+    <row r="27" spans="2:67">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1682,8 +1726,9 @@
       <c r="T27" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO27" s="20"/>
+    </row>
+    <row r="28" spans="2:67">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1709,8 +1754,9 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO28" s="20"/>
+    </row>
+    <row r="29" spans="2:67">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1745,8 +1791,9 @@
       <c r="U29" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="BO29" s="20"/>
+    </row>
+    <row r="30" spans="2:67">
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1775,8 +1822,9 @@
       <c r="U30" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO30" s="20"/>
+    </row>
+    <row r="31" spans="2:67">
       <c r="B31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1795,8 +1843,9 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="2:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO31" s="20"/>
+    </row>
+    <row r="32" spans="2:67">
       <c r="B32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1815,8 +1864,9 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO32" s="20"/>
+    </row>
+    <row r="33" spans="1:67">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +1887,9 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO33" s="20"/>
+    </row>
+    <row r="34" spans="1:67">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1860,8 +1911,9 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO34" s="20"/>
+    </row>
+    <row r="35" spans="1:67">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1896,8 +1948,9 @@
       <c r="BK35" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO35" s="20"/>
+    </row>
+    <row r="36" spans="1:67">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1928,11 +1981,12 @@
       <c r="BJ36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="BK36" s="20" t="s">
+      <c r="BK36" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO36" s="20"/>
+    </row>
+    <row r="37" spans="1:67">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1956,8 +2010,10 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK37" s="5"/>
+      <c r="BO37" s="20"/>
+    </row>
+    <row r="38" spans="1:67">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
@@ -1988,8 +2044,12 @@
       <c r="BJ38" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK38" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO38" s="20"/>
+    </row>
+    <row r="39" spans="1:67">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
@@ -2017,8 +2077,12 @@
       <c r="BH39" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BK39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO39" s="20"/>
+    </row>
+    <row r="40" spans="1:67">
       <c r="B40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2037,8 +2101,9 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
-    </row>
-    <row r="41" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO40" s="20"/>
+    </row>
+    <row r="41" spans="1:67">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2056,8 +2121,9 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
-    </row>
-    <row r="42" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO41" s="20"/>
+    </row>
+    <row r="42" spans="1:67">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2079,8 +2145,9 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO42" s="20"/>
+    </row>
+    <row r="43" spans="1:67">
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2111,8 +2178,9 @@
       <c r="AC43" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO43" s="20"/>
+    </row>
+    <row r="44" spans="1:67">
       <c r="B44" s="11" t="s">
         <v>27</v>
       </c>
@@ -2135,8 +2203,9 @@
       <c r="AD44" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO44" s="20"/>
+    </row>
+    <row r="45" spans="1:67">
       <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
@@ -2159,8 +2228,9 @@
       <c r="AD45" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO45" s="20"/>
+    </row>
+    <row r="46" spans="1:67">
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2189,8 +2259,9 @@
       <c r="AE46" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO46" s="20"/>
+    </row>
+    <row r="47" spans="1:67">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
@@ -2221,8 +2292,9 @@
       <c r="AE47" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO47" s="20"/>
+    </row>
+    <row r="48" spans="1:67">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2254,8 +2326,9 @@
       <c r="AE48" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO48" s="20"/>
+    </row>
+    <row r="49" spans="1:67">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -2281,8 +2354,9 @@
       <c r="AD49" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO49" s="20"/>
+    </row>
+    <row r="50" spans="1:67">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -2314,8 +2388,9 @@
       <c r="BK50" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO50" s="20"/>
+    </row>
+    <row r="51" spans="1:67">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2333,8 +2408,9 @@
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
-    </row>
-    <row r="52" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO51" s="20"/>
+    </row>
+    <row r="52" spans="1:67">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2352,8 +2428,9 @@
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-    </row>
-    <row r="53" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO52" s="20"/>
+    </row>
+    <row r="53" spans="1:67">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2375,8 +2452,9 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-    </row>
-    <row r="54" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO53" s="20"/>
+    </row>
+    <row r="54" spans="1:67">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2397,17 +2475,25 @@
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-    </row>
-    <row r="55" spans="1:63" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BO54" s="20"/>
+    </row>
+    <row r="55" spans="1:67">
       <c r="B55" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO55" s="20"/>
+    </row>
+    <row r="56" spans="1:67">
       <c r="B56" s="5"/>
-    </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO56" s="20"/>
+    </row>
+    <row r="57" spans="1:67">
+      <c r="BO57" s="20"/>
+    </row>
+    <row r="58" spans="1:67">
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2415,33 +2501,51 @@
       <c r="N58" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK58" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO58" s="20"/>
+    </row>
+    <row r="59" spans="1:67">
+      <c r="BO59" s="20"/>
+    </row>
+    <row r="60" spans="1:67">
+      <c r="BO60" s="20"/>
+    </row>
+    <row r="61" spans="1:67">
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO61" s="20"/>
+    </row>
+    <row r="62" spans="1:67">
       <c r="B62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO62" s="20"/>
+    </row>
+    <row r="63" spans="1:67">
       <c r="B63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BO63" s="20"/>
+    </row>
+    <row r="64" spans="1:67">
       <c r="B64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO64" s="20"/>
+    </row>
+    <row r="65" spans="2:67">
       <c r="B65" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO65" s="20"/>
+    </row>
+    <row r="66" spans="2:67">
+      <c r="BO66" s="20"/>
+    </row>
+    <row r="67" spans="2:67">
       <c r="E67" s="12" t="s">
         <v>37</v>
       </c>
@@ -2449,75 +2553,103 @@
       <c r="AA67" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO67" s="20"/>
+    </row>
+    <row r="68" spans="2:67">
       <c r="B68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="16"/>
       <c r="L68" s="16"/>
       <c r="AA68" s="19"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO68" s="20"/>
+    </row>
+    <row r="69" spans="2:67">
       <c r="B69" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO69" s="20"/>
+    </row>
+    <row r="70" spans="2:67">
       <c r="B70" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO70" s="20"/>
+    </row>
+    <row r="71" spans="2:67">
+      <c r="BO71" s="20"/>
+    </row>
+    <row r="72" spans="2:67">
+      <c r="BO72" s="20"/>
+    </row>
+    <row r="73" spans="2:67">
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO73" s="20"/>
+    </row>
+    <row r="74" spans="2:67">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="BO74" s="20"/>
+    </row>
+    <row r="75" spans="2:67">
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="9"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="BO75" s="20"/>
+    </row>
+    <row r="76" spans="2:67">
+      <c r="BO76" s="20"/>
+    </row>
+    <row r="77" spans="2:67">
+      <c r="BO77" s="20"/>
+    </row>
+    <row r="78" spans="2:67">
+      <c r="BO78" s="20"/>
+    </row>
+    <row r="79" spans="2:67">
+      <c r="BO79" s="20"/>
+    </row>
+    <row r="80" spans="2:67">
+      <c r="BO80" s="20"/>
+    </row>
+    <row r="119" spans="4:4">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4">
       <c r="D120" s="5"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4">
       <c r="D124" s="5"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
@@ -2529,24 +2661,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
